--- a/CostReduction/regression-ml-model/data/aks_02_dataset-V.03.xlsx
+++ b/CostReduction/regression-ml-model/data/aks_02_dataset-V.03.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91988\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Brijesh\Projects\Datascience\MLearn\CostReduction\regression-ml-model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECBDD5C-8276-4763-AEF4-081384F760FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB660926-8A00-447F-8043-E9AB534A670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="737">
   <si>
     <t>key</t>
   </si>
@@ -2247,12 +2247,6 @@
   </si>
   <si>
     <t>blue-cape-215-k8s-</t>
-  </si>
-  <si>
-    <t>desired_CPU</t>
-  </si>
-  <si>
-    <t>desired_memory</t>
   </si>
 </sst>
 </file>
@@ -2638,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CF01DA-7841-45AD-B392-8D7A3FB6B9A4}">
-  <dimension ref="A1:O359"/>
+  <dimension ref="A1:M359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2658,11 +2652,9 @@
     <col min="11" max="11" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2702,14 +2694,8 @@
       <c r="M1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2733,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2785,7 +2771,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2823,7 +2809,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -2861,7 +2847,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2899,7 +2885,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -2937,7 +2923,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2975,7 +2961,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3013,7 +2999,7 @@
         <v>235929600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3051,7 +3037,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3089,7 +3075,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -3127,7 +3113,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -3165,7 +3151,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3203,7 +3189,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3241,7 +3227,7 @@
         <v>52428800</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>79</v>
       </c>
